--- a/sampletmbz.xlsx
+++ b/sampletmbz.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2. Educational\6. Projects\6.FIVER\NN_to_India\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="915" windowWidth="19335" windowHeight="7095"/>
+    <workbookView xWindow="960" yWindow="912" windowWidth="19332" windowHeight="7092"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,7 +70,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,16 +93,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -106,6 +125,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -152,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +211,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,6 +246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,16 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G167"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>48</v>
       </c>
@@ -425,7 +454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -448,7 +477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -471,7 +500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>94</v>
       </c>
@@ -494,7 +523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -517,7 +546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43</v>
       </c>
@@ -540,7 +569,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>37</v>
       </c>
@@ -563,7 +592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>94</v>
       </c>
@@ -586,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>27</v>
       </c>
@@ -609,7 +638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>93</v>
       </c>
@@ -632,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>89</v>
       </c>
@@ -655,7 +684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>78</v>
       </c>
@@ -678,7 +707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>19</v>
       </c>
@@ -701,7 +730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>23</v>
       </c>
@@ -724,7 +753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -747,7 +776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>27</v>
       </c>
@@ -770,7 +799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -793,7 +822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30</v>
       </c>
@@ -816,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>72</v>
       </c>
@@ -839,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -862,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>57</v>
       </c>
@@ -885,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>84</v>
       </c>
@@ -908,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>38</v>
       </c>
@@ -931,7 +960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>93</v>
       </c>
@@ -954,7 +983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>54</v>
       </c>
@@ -977,7 +1006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1000,7 +1029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1023,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>62</v>
       </c>
@@ -1046,7 +1075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45</v>
       </c>
@@ -1069,7 +1098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>83</v>
       </c>
@@ -1092,7 +1121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>56</v>
       </c>
@@ -1115,7 +1144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>85</v>
       </c>
@@ -1138,7 +1167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>24</v>
       </c>
@@ -1161,7 +1190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>81</v>
       </c>
@@ -1184,7 +1213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>20</v>
       </c>
@@ -1207,7 +1236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>78</v>
       </c>
@@ -1230,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>48</v>
       </c>
@@ -1253,7 +1282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>69</v>
       </c>
@@ -1276,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -1299,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>15</v>
       </c>
@@ -1322,7 +1351,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -1345,7 +1374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>78</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>81</v>
       </c>
@@ -1391,7 +1420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>94</v>
       </c>
@@ -1414,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1437,7 +1466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>17</v>
       </c>
@@ -1458,7 +1487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -1481,7 +1510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>77</v>
       </c>
@@ -1504,7 +1533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -1527,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -1550,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>34</v>
       </c>
@@ -1596,7 +1625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>90</v>
       </c>
@@ -1619,7 +1648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>39</v>
       </c>
@@ -1642,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -1665,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -1688,7 +1717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>69</v>
       </c>
@@ -1711,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>21</v>
       </c>
@@ -1734,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>69</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>72</v>
       </c>
@@ -1780,7 +1809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>71</v>
       </c>
@@ -1803,7 +1832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>21</v>
       </c>
@@ -1826,7 +1855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>95</v>
       </c>
@@ -1872,7 +1901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>26</v>
       </c>
@@ -1895,7 +1924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>78</v>
       </c>
@@ -1918,7 +1947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>60</v>
       </c>
@@ -1941,7 +1970,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>49</v>
       </c>
@@ -1964,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>76</v>
       </c>
@@ -1987,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -2010,7 +2039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>56</v>
       </c>
@@ -2033,7 +2062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>56</v>
       </c>
@@ -2056,7 +2085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>48</v>
       </c>
@@ -2079,7 +2108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>23</v>
       </c>
@@ -2102,7 +2131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>65</v>
       </c>
@@ -2125,7 +2154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>85</v>
       </c>
@@ -2148,7 +2177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>36</v>
       </c>
@@ -2217,7 +2246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>11</v>
       </c>
@@ -2240,7 +2269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>7</v>
       </c>
@@ -2263,7 +2292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -2286,7 +2315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>26</v>
       </c>
@@ -2309,7 +2338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75">
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>23</v>
       </c>
@@ -2332,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75">
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>34</v>
       </c>
@@ -2355,7 +2384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75">
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>87</v>
       </c>
@@ -2378,7 +2407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>27</v>
       </c>
@@ -2401,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>90</v>
       </c>
@@ -2424,7 +2453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>74</v>
       </c>
@@ -2447,7 +2476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>13</v>
       </c>
@@ -2470,7 +2499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>56</v>
       </c>
@@ -2493,7 +2522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -2516,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>48</v>
       </c>
@@ -2539,7 +2568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>16</v>
       </c>
@@ -2562,7 +2591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>76</v>
       </c>
@@ -2585,7 +2614,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>54</v>
       </c>
@@ -2608,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75">
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>60</v>
       </c>
@@ -2631,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75">
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>48</v>
       </c>
@@ -2654,7 +2683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75">
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>46</v>
       </c>
@@ -2677,7 +2706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2700,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75">
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>94</v>
       </c>
@@ -2723,7 +2752,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75">
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>56</v>
       </c>
@@ -2746,7 +2775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75">
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>93</v>
       </c>
@@ -2769,7 +2798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75">
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>60</v>
       </c>
@@ -2792,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75">
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>69</v>
       </c>
@@ -2815,7 +2844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75">
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75">
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>77</v>
       </c>
@@ -2861,7 +2890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75">
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75">
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>52</v>
       </c>
@@ -2907,7 +2936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75">
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>71</v>
       </c>
@@ -2930,7 +2959,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75">
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>53</v>
       </c>
@@ -2953,7 +2982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75">
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>74</v>
       </c>
@@ -2976,7 +3005,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75">
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>32</v>
       </c>
@@ -2999,7 +3028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75">
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>40</v>
       </c>
@@ -3022,7 +3051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75">
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>27</v>
       </c>
@@ -3045,7 +3074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75">
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>76</v>
       </c>
@@ -3068,7 +3097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75">
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>99</v>
       </c>
@@ -3091,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75">
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>49</v>
       </c>
@@ -3114,7 +3143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75">
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>41</v>
       </c>
@@ -3137,7 +3166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75">
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42</v>
       </c>
@@ -3160,7 +3189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75">
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75">
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>62</v>
       </c>
@@ -3206,7 +3235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75">
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>64</v>
       </c>
@@ -3229,7 +3258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75">
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -3252,7 +3281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75">
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>16</v>
       </c>
@@ -3275,7 +3304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75">
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>15</v>
       </c>
@@ -3298,7 +3327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75">
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>92</v>
       </c>
@@ -3321,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75">
+    <row r="128" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75">
+    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>50</v>
       </c>
@@ -3367,7 +3396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75">
+    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>34</v>
       </c>
@@ -3390,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75">
+    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>38</v>
       </c>
@@ -3413,7 +3442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75">
+    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>70</v>
       </c>
@@ -3436,7 +3465,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75">
+    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>55</v>
       </c>
@@ -3459,7 +3488,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75">
+    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43</v>
       </c>
@@ -3482,7 +3511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75">
+    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>4</v>
       </c>
@@ -3505,7 +3534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75">
+    <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>87</v>
       </c>
@@ -3528,7 +3557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75">
+    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>94</v>
       </c>
@@ -3551,7 +3580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75">
+    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>14</v>
       </c>
@@ -3574,7 +3603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75">
+    <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>0</v>
       </c>
@@ -3597,7 +3626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75">
+    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>26</v>
       </c>
@@ -3620,7 +3649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75">
+    <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>80</v>
       </c>
@@ -3643,7 +3672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75">
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>74</v>
       </c>
@@ -3666,7 +3695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75">
+    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>47</v>
       </c>
@@ -3689,7 +3718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75">
+    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>25</v>
       </c>
@@ -3712,7 +3741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75">
+    <row r="145" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>33</v>
       </c>
@@ -3735,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75">
+    <row r="146" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>29</v>
       </c>
@@ -3758,7 +3787,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75">
+    <row r="147" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>95</v>
       </c>
@@ -3781,7 +3810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75">
+    <row r="148" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>75</v>
       </c>
@@ -3804,7 +3833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75">
+    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>39</v>
       </c>
@@ -3827,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75">
+    <row r="150" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>19</v>
       </c>
@@ -3850,7 +3879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75">
+    <row r="151" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>87</v>
       </c>
@@ -3873,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75">
+    <row r="152" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>96</v>
       </c>
@@ -3896,7 +3925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75">
+    <row r="153" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -3919,7 +3948,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75">
+    <row r="154" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>48</v>
       </c>
@@ -3942,7 +3971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75">
+    <row r="155" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>48</v>
       </c>
@@ -3965,7 +3994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75">
+    <row r="156" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>99</v>
       </c>
@@ -3988,7 +4017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75">
+    <row r="157" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>20</v>
       </c>
@@ -4011,7 +4040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
+    <row r="158" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>60</v>
       </c>
@@ -4034,7 +4063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75">
+    <row r="159" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>70</v>
       </c>
@@ -4057,7 +4086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75">
+    <row r="160" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>33</v>
       </c>
@@ -4080,7 +4109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75">
+    <row r="161" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>35</v>
       </c>
@@ -4103,7 +4132,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75">
+    <row r="162" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75">
+    <row r="163" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>9</v>
       </c>
@@ -4149,7 +4178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75">
+    <row r="164" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>88</v>
       </c>
@@ -4172,7 +4201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75">
+    <row r="165" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>12</v>
       </c>
@@ -4195,7 +4224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75">
+    <row r="166" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>97</v>
       </c>
@@ -4218,7 +4247,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75">
+    <row r="167" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>89</v>
       </c>
@@ -4240,6 +4269,9 @@
       <c r="G167" s="1">
         <v>69</v>
       </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4247,24 +4279,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
